--- a/data/trans_bre/P5_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>-5,46%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 2,39</t>
+          <t>-8,44; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 4,4</t>
+          <t>-8,38; 3,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 6,06</t>
+          <t>-18,79; 6,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 11,3</t>
+          <t>-18,33; 9,98</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-16,76%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -4,57</t>
+          <t>-16,24; -3,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -1,53</t>
+          <t>-13,75; 0,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,83; -10,77</t>
+          <t>-33,67; -9,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,06; -3,37</t>
+          <t>-29,66; 0,65</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-2,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-15,28%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 10,11</t>
+          <t>-12,34; 10,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 6,15</t>
+          <t>-19,57; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 31,75</t>
+          <t>-27,2; 34,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 20,95</t>
+          <t>-39,61; 20,76</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-11,02%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -2,0</t>
+          <t>-9,5; -1,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,55; -0,64</t>
+          <t>-9,27; -0,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,82; -4,93</t>
+          <t>-21,47; -4,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,88; -1,5</t>
+          <t>-20,5; -1,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,13%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,46%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.976608342377834</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.128303450903235</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.07128156013129525</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.05055575852808483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 2,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; 3,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,79; 6,47</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,33; 9,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.443981417915044</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.258528441213977</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1879052176962389</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1847763431406682</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.571423781460528</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.110199402996946</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.0647362012366148</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1034408108010089</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-10,22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-22,86%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-16,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,24; -3,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; 0,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-33,67; -9,13</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-29,66; 0,65</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-10.21830941571251</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.176449699524124</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.2286245395911234</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1669265772398457</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,96%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-15,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-16.23967791012771</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.00892343937605</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3367450465914431</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3013713111371652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 10,94</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,57; 6,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-27,2; 34,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-39,61; 20,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-3.768621355572841</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5943841442027276</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.09126370746259686</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.01414334682590274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,6</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-13,16%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-11,02%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.144678212363759</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.815752044000995</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.02963251864351264</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1720860675400487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; -1,82</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; -0,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,47; -4,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-20,5; -1,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.34140985022251</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.48811081240341</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2719576275576145</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4310737251491799</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.93691054097464</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.620865572959909</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.3434045154301935</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2200214645609014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5.601425034748769</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.598546226800354</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1316272031677372</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1091025631280538</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.501016325367132</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.867989068365569</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2146735845439877</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2050650232013756</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.815715406683933</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.1910500528218063</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.04508100832366943</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.006738942564400876</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
